--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,85 +22,157 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>213008</t>
+  </si>
+  <si>
+    <t>001150</t>
+  </si>
+  <si>
+    <t>009223</t>
+  </si>
+  <si>
+    <t>001543</t>
+  </si>
+  <si>
+    <t>010363</t>
+  </si>
+  <si>
+    <t>001208</t>
+  </si>
+  <si>
+    <t>001403</t>
+  </si>
+  <si>
+    <t>009224</t>
+  </si>
+  <si>
+    <t>006675</t>
+  </si>
+  <si>
+    <t>007152</t>
+  </si>
+  <si>
+    <t>501097</t>
+  </si>
+  <si>
+    <t>002137</t>
+  </si>
+  <si>
+    <t>320020</t>
+  </si>
+  <si>
+    <t>007578</t>
+  </si>
+  <si>
+    <t>002296</t>
+  </si>
+  <si>
+    <t>163818</t>
+  </si>
+  <si>
+    <t>001613</t>
+  </si>
+  <si>
+    <t>001628</t>
+  </si>
+  <si>
+    <t>006676</t>
+  </si>
+  <si>
+    <t>005360</t>
+  </si>
+  <si>
+    <t>010349</t>
+  </si>
+  <si>
+    <t>003332</t>
+  </si>
+  <si>
     <t>004794</t>
   </si>
   <si>
     <t>004795</t>
   </si>
   <si>
-    <t>001208</t>
-  </si>
-  <si>
-    <t>010349</t>
-  </si>
-  <si>
-    <t>005360</t>
-  </si>
-  <si>
-    <t>213008</t>
-  </si>
-  <si>
-    <t>320020</t>
-  </si>
-  <si>
-    <t>006675</t>
-  </si>
-  <si>
-    <t>006676</t>
-  </si>
-  <si>
-    <t>010363</t>
-  </si>
-  <si>
-    <t>501097</t>
-  </si>
-  <si>
-    <t>007152</t>
-  </si>
-  <si>
-    <t>001150</t>
-  </si>
-  <si>
-    <t>001403</t>
-  </si>
-  <si>
-    <t>001543</t>
-  </si>
-  <si>
-    <t>007578</t>
-  </si>
-  <si>
-    <t>001613</t>
-  </si>
-  <si>
-    <t>001628</t>
-  </si>
-  <si>
-    <t>002137</t>
-  </si>
-  <si>
-    <t>002296</t>
-  </si>
-  <si>
-    <t>003332</t>
-  </si>
-  <si>
-    <t>009223</t>
-  </si>
-  <si>
-    <t>009224</t>
-  </si>
-  <si>
-    <t>163818</t>
+    <t>宝盈资源优选混合</t>
+  </si>
+  <si>
+    <t>融通互联网传媒灵活配置混合</t>
+  </si>
+  <si>
+    <t>宝盈现代服务业混合A</t>
+  </si>
+  <si>
+    <t>宝盈新锐灵活配置混合A</t>
+  </si>
+  <si>
+    <t>信达澳银匠心臻选两年持有期混合</t>
+  </si>
+  <si>
+    <t>诺安低碳经济股票A</t>
+  </si>
+  <si>
+    <t>招商国企改革主题混合</t>
+  </si>
+  <si>
+    <t>宝盈现代服务业混合C</t>
+  </si>
+  <si>
+    <t>宝盈品牌消费股票A</t>
+  </si>
+  <si>
+    <t>诺德策略精选混合</t>
+  </si>
+  <si>
+    <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+  </si>
+  <si>
+    <t>诺安利鑫灵活配置混合</t>
+  </si>
+  <si>
+    <t>诺安策略精选股票</t>
+  </si>
+  <si>
+    <t>宝盈新锐灵活配置混合C</t>
+  </si>
+  <si>
+    <t>长城行业轮动灵活配置混合</t>
+  </si>
+  <si>
+    <t>中银中小盘成长混合</t>
+  </si>
+  <si>
+    <t>长城久祥灵活配置混合</t>
+  </si>
+  <si>
+    <t>招商体育文化休闲股票</t>
+  </si>
+  <si>
+    <t>宝盈品牌消费股票C</t>
+  </si>
+  <si>
+    <t>汇安资产轮动灵活配置混合</t>
+  </si>
+  <si>
+    <t>诺安低碳经济股票C</t>
+  </si>
+  <si>
+    <t>南方荣发定期开放混合</t>
   </si>
   <si>
     <t>富荣福鑫灵活配置混合A</t>
@@ -109,181 +181,250 @@
     <t>富荣福鑫灵活配置混合C</t>
   </si>
   <si>
-    <t>诺安低碳经济股票A</t>
-  </si>
-  <si>
-    <t>诺安低碳经济股票C</t>
-  </si>
-  <si>
-    <t>汇安资产轮动灵活配置混合</t>
-  </si>
-  <si>
-    <t>宝盈资源优选混合</t>
-  </si>
-  <si>
-    <t>诺安策略精选股票</t>
-  </si>
-  <si>
-    <t>宝盈品牌消费股票A</t>
-  </si>
-  <si>
-    <t>宝盈品牌消费股票C</t>
-  </si>
-  <si>
-    <t>信达澳银匠心臻选两年持有期混合</t>
-  </si>
-  <si>
-    <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-  </si>
-  <si>
-    <t>诺德策略精选混合</t>
-  </si>
-  <si>
-    <t>融通互联网传媒灵活配置混合</t>
-  </si>
-  <si>
-    <t>招商国企改革主题混合</t>
-  </si>
-  <si>
-    <t>宝盈新锐灵活配置混合A</t>
-  </si>
-  <si>
-    <t>宝盈新锐灵活配置混合C</t>
-  </si>
-  <si>
-    <t>长城久祥灵活配置混合</t>
-  </si>
-  <si>
-    <t>招商体育文化休闲股票</t>
-  </si>
-  <si>
-    <t>诺安利鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>长城行业轮动灵活配置混合</t>
-  </si>
-  <si>
-    <t>南方荣发定期开放混合</t>
-  </si>
-  <si>
-    <t>宝盈现代服务业混合A</t>
-  </si>
-  <si>
-    <t>宝盈现代服务业混合C</t>
-  </si>
-  <si>
-    <t>中银中小盘成长混合</t>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>12.53</t>
+  </si>
+  <si>
+    <t>7.41</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>94.22</t>
+  </si>
+  <si>
+    <t>86.50</t>
+  </si>
+  <si>
+    <t>94.73</t>
+  </si>
+  <si>
+    <t>94.41</t>
+  </si>
+  <si>
+    <t>93.02</t>
+  </si>
+  <si>
+    <t>81.70</t>
+  </si>
+  <si>
+    <t>84.84</t>
+  </si>
+  <si>
+    <t>94.84</t>
+  </si>
+  <si>
+    <t>82.97</t>
+  </si>
+  <si>
+    <t>23.57</t>
+  </si>
+  <si>
+    <t>63.68</t>
+  </si>
+  <si>
+    <t>83.37</t>
+  </si>
+  <si>
+    <t>85.57</t>
+  </si>
+  <si>
+    <t>87.72</t>
+  </si>
+  <si>
+    <t>86.68</t>
+  </si>
+  <si>
+    <t>87.30</t>
+  </si>
+  <si>
+    <t>90.35</t>
+  </si>
+  <si>
+    <t>28.92</t>
   </si>
   <si>
     <t>66.70</t>
   </si>
   <si>
-    <t>81.70</t>
-  </si>
-  <si>
-    <t>90.35</t>
-  </si>
-  <si>
-    <t>94.22</t>
-  </si>
-  <si>
-    <t>83.37</t>
-  </si>
-  <si>
-    <t>94.84</t>
-  </si>
-  <si>
-    <t>93.02</t>
-  </si>
-  <si>
-    <t>23.57</t>
-  </si>
-  <si>
-    <t>82.97</t>
-  </si>
-  <si>
-    <t>86.50</t>
-  </si>
-  <si>
-    <t>84.84</t>
-  </si>
-  <si>
-    <t>94.41</t>
-  </si>
-  <si>
-    <t>86.68</t>
-  </si>
-  <si>
-    <t>87.30</t>
-  </si>
-  <si>
-    <t>63.68</t>
-  </si>
-  <si>
-    <t>85.57</t>
-  </si>
-  <si>
-    <t>28.92</t>
-  </si>
-  <si>
-    <t>94.73</t>
-  </si>
-  <si>
-    <t>87.72</t>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>1.37</t>
   </si>
   <si>
     <t>5.39</t>
   </si>
   <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>10.12</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.37</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>4.91</t>
-  </si>
-  <si>
-    <t>6.79</t>
-  </si>
-  <si>
-    <t>3.84</t>
-  </si>
-  <si>
-    <t>9.25</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>9.12</t>
-  </si>
-  <si>
-    <t>3.11</t>
+    <t>1.5382</t>
+  </si>
+  <si>
+    <t>0.8508</t>
+  </si>
+  <si>
+    <t>0.6758</t>
+  </si>
+  <si>
+    <t>0.3515</t>
+  </si>
+  <si>
+    <t>0.2876</t>
+  </si>
+  <si>
+    <t>0.1770</t>
+  </si>
+  <si>
+    <t>0.1117</t>
+  </si>
+  <si>
+    <t>0.0629</t>
+  </si>
+  <si>
+    <t>0.0375</t>
+  </si>
+  <si>
+    <t>0.0363</t>
+  </si>
+  <si>
+    <t>0.0279</t>
+  </si>
+  <si>
+    <t>0.0269</t>
+  </si>
+  <si>
+    <t>0.0252</t>
+  </si>
+  <si>
+    <t>0.0213</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>0.0190</t>
+  </si>
+  <si>
+    <t>0.0177</t>
+  </si>
+  <si>
+    <t>0.0163</t>
+  </si>
+  <si>
+    <t>0.0141</t>
+  </si>
+  <si>
+    <t>0.0069</t>
+  </si>
+  <si>
+    <t>0.0053</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
+    <t>0.0027</t>
   </si>
 </sst>
 </file>
@@ -641,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,485 +804,635 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3593,4 +3594,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9474</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4334,4 +4335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4343,7 +4344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4354,17 +4355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4374,14 +4395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.3</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4390,14 +4433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.05</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4406,13 +4471,667 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>24</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5046,7 +5047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5057,17 +5058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5077,14 +5098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.27</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0329</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5093,14 +5136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.3</v>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5109,14 +5174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.05</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5125,13 +5212,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5749,7 +5750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5760,17 +5761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5780,14 +5801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.2</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5796,14 +5839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.27</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5812,14 +5877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.3</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5828,14 +5915,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.05</v>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5844,13 +5953,1343 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,965 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈资源优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5382</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8508</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009223</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6758</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3515</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2876</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.05</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1770</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1117</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009224</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈现代服务业混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0629</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0363</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501097</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002296</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城行业轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005360</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇安资产轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.70</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>28.92</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>66.70</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>66.70</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1424,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1475,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>010347</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>农银汇理策略收益一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>61.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.03</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5071</t>
+          <t>2.4726</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1513,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001852</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通中国风1号灵活配置混合A</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.34</t>
+          <t>45.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>95.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4200</t>
+          <t>2.3939</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1551,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>36.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1959</t>
+          <t>1.3545</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1589,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006371</t>
+          <t>163411</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安鑫盈灵活配置混合A</t>
+          <t>兴全精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.99</t>
+          <t>45.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7754</t>
+          <t>1.2490</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1627,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009958</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长安鑫悦消费驱动混合A</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>30.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7742</t>
+          <t>0.8005</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1665,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>070013</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>嘉实研究精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>16.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>89.58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6226</t>
+          <t>0.4688</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1703,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5830</t>
+          <t>0.4173</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1741,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>590008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>中邮战略新兴产业混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5799</t>
+          <t>0.3695</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1779,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400003</t>
+          <t>560880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方精选混合</t>
+          <t>广发中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5591</t>
+          <t>0.2722</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1817,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5571</t>
+          <t>0.2671</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1855,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>014185</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>招商专精特新股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>86.35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5041</t>
+          <t>0.2216</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1893,32 +1057,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>014186</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>招商专精特新股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>86.35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3640</t>
+          <t>0.1402</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1931,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011184</t>
+          <t>009778</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方阿尔法招阳混合A</t>
+          <t>长信消费升级混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76.32</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3588</t>
+          <t>0.1286</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1969,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>050022</t>
+          <t>009598</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时回报混合</t>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3315</t>
+          <t>0.0973</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2007,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005743</t>
+          <t>519959</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长安裕隆灵活配置混合A</t>
+          <t>长信多利灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3248</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2045,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009891</t>
+          <t>013488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融通产业趋势臻选股票</t>
+          <t>长信多利灵活配置混合D</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3216</t>
+          <t>0.0820</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2083,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009959</t>
+          <t>009779</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长安鑫悦消费驱动混合C</t>
+          <t>长信消费升级混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1732</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2121,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005412</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1665</t>
+          <t>0.0494</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2159,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方龙混合</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1580</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2197,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005744</t>
+          <t>160722</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长安裕隆灵活配置混合C</t>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1353</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2235,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>206012</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华价值精选股票</t>
+          <t>金鹰元安混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>24.86</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1160</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2273,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1133</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -2311,32 +1475,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006372</t>
+          <t>010777</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长安鑫盈灵活配置混合C</t>
+          <t>浙商智选家居股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1056</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2349,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008445</t>
+          <t>519987</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>融通产业趋势先锋股票</t>
+          <t>长信恒利优势混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2387,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005413</t>
+          <t>002513</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金信民长灵活配置混合C</t>
+          <t>金鹰元安混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>24.86</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1025</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2425,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000684</t>
+          <t>006181</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长盛养老健康产业灵活配置混合</t>
+          <t>格林伯锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2463,32 +1627,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>010778</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>浙商智选家居股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.41</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0999</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2501,36 +1665,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005049</t>
+          <t>006182</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合A</t>
+          <t>格林伯锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2539,36 +1703,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005342</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合C</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0842</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2577,36 +1741,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008412</t>
+          <t>001657</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长盛竞争优势股票A</t>
+          <t>长安鑫富领先灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>80.94</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0833</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2615,36 +1779,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005050</t>
+          <t>014256</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合C</t>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0713</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2653,32 +1817,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007152</t>
+          <t>009106</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>诺德策略精选混合</t>
+          <t>嘉合同顺智选股票A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>81.47</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0647</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2691,32 +1855,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>009107</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>嘉合同顺智选股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>86.84</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2729,36 +1893,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>004727</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>先锋聚优灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0502</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2767,36 +1931,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>95.36</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2805,794 +1969,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000966</t>
+          <t>960025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中邮核心科技创新灵活配置混合</t>
+          <t>嘉实研究精选混合H</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>89.58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0376</t>
-        </is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>162214</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>泰达宏利领先中小盘混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007678</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>泰达宏利品牌升级混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>8.39</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0285</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>87.14</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007527</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>95.36</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008413</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>长盛竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002512</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>长城久润混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009273</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>融通中国风1号灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010777</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>011185</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>东方阿尔法招阳混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>007528</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>融通量化多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001708</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>东兴改革精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>81.81</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>007679</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>泰达宏利品牌升级混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>010778</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>91.06</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3627,7 +2031,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3657,36 +2061,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213001</t>
+          <t>010347</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
+          <t>农银汇理策略收益一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.72</t>
+          <t>56.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>74.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9474</t>
+          <t>2.0329</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3695,36 +2099,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>41.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.33</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0162</t>
+          <t>1.2697</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3733,36 +2137,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>31.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.73</t>
+          <t>75.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6856</t>
+          <t>1.1116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3771,36 +2175,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008227</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈研究精选混合A</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4351</t>
+          <t>0.4347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3809,36 +2213,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>501080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3500</t>
+          <t>0.3712</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3847,36 +2251,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3257</t>
+          <t>0.2313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3885,36 +2289,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1717</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3923,36 +2327,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008228</t>
+          <t>009778</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宝盈研究精选混合C</t>
+          <t>长信消费升级混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>83.25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.1581</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3961,36 +2365,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007581</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.1001</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3999,36 +2403,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>519959</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>长信多利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -4037,32 +2441,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007152</t>
+          <t>013488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德策略精选混合</t>
+          <t>长信多利灵活配置混合D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.89</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -4075,36 +2479,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>014135</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>中欧金安量化混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -4113,36 +2517,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -4151,36 +2555,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>010777</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>浙商智选家居股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4189,32 +2593,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>519987</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>长信恒利优势混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4227,36 +2631,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>014136</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>中欧金安量化混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83.56</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4265,74 +2669,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010777</t>
+          <t>010778</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商智选家居股票A</t>
+          <t>浙商智选家居股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010778</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5048,7 +3414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5069,7 +3435,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5099,36 +3465,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010347</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理策略收益一年持有期混合</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.47</t>
+          <t>23.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.89</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0329</t>
+          <t>1.9474</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5137,36 +3503,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.63</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2697</t>
+          <t>1.0162</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5175,36 +3541,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.49</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.60</t>
+          <t>90.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1116</t>
+          <t>0.6856</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5213,36 +3579,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>008227</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>宝盈研究精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.75</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4347</t>
+          <t>0.4351</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5251,36 +3617,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501080</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.20</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3712</t>
+          <t>0.3500</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5289,36 +3655,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2313</t>
+          <t>0.3257</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -5327,36 +3693,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.46</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2197</t>
+          <t>0.1717</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -5365,36 +3731,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009778</t>
+          <t>008228</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信消费升级混合A</t>
+          <t>宝盈研究精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.25</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1581</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5403,36 +3769,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>007581</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>宝盈鸿利收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1001</t>
+          <t>0.0862</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5441,36 +3807,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519959</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信多利灵活配置混合</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.11</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0709</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -5479,32 +3845,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013488</t>
+          <t>007152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信多利灵活配置混合D</t>
+          <t>诺德策略精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.11</t>
+          <t>84.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0709</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -5517,36 +3883,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014135</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧金安量化混合A</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67.44</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -5555,36 +3921,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>54.15</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -5593,36 +3959,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010777</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商智选家居股票A</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -5631,32 +3997,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519987</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信恒利优势混合</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82.39</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -5669,36 +4035,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>014136</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧金安量化混合C</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>67.44</t>
+          <t>83.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -5707,36 +4073,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>010778</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>浙商智选家居股票C</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5750,7 +4154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5771,7 +4175,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5801,36 +4205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010347</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理策略收益一年持有期混合</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>61.66</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4726</t>
+          <t>1.5071</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5839,36 +4243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>001852</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>融通中国风1号灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>40.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3939</t>
+          <t>1.4200</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5877,36 +4281,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3545</t>
+          <t>1.1959</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5915,36 +4319,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163411</t>
+          <t>006371</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴全精选混合</t>
+          <t>长安鑫盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45.75</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2490</t>
+          <t>0.7754</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5953,36 +4357,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>009958</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>长安鑫悦消费驱动混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30.79</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8005</t>
+          <t>0.7742</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5991,36 +4395,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>070013</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实研究精选混合A</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.22</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4688</t>
+          <t>0.6226</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6029,36 +4433,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>82.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4173</t>
+          <t>0.5830</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -6067,36 +4471,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>590008</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮战略新兴产业混合</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3695</t>
+          <t>0.5799</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -6105,36 +4509,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>560880</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器ETF</t>
+          <t>东方精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2722</t>
+          <t>0.5591</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -6143,36 +4547,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2671</t>
+          <t>0.5571</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -6181,36 +4585,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014185</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商专精特新股票A</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2216</t>
+          <t>0.5041</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -6219,32 +4623,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>014186</t>
+          <t>660012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商专精特新股票C</t>
+          <t>农银消费主题混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.35</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1402</t>
+          <t>0.3640</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -6257,36 +4661,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009778</t>
+          <t>011184</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长信消费升级混合A</t>
+          <t>东方阿尔法招阳混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>76.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1286</t>
+          <t>0.3588</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6295,36 +4699,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009598</t>
+          <t>050022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+          <t>博时回报混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>76.08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0973</t>
+          <t>0.3315</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -6333,36 +4737,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519959</t>
+          <t>005743</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信多利灵活配置混合</t>
+          <t>长安裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0820</t>
+          <t>0.3248</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -6371,36 +4775,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>013488</t>
+          <t>009891</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长信多利灵活配置混合D</t>
+          <t>融通产业趋势臻选股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.76</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0820</t>
+          <t>0.3216</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -6409,36 +4813,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009779</t>
+          <t>009959</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信消费升级混合C</t>
+          <t>长安鑫悦消费驱动混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.1732</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -6447,36 +4851,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>005412</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>金信民长灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0494</t>
+          <t>0.1665</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -6485,36 +4889,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011431</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合A</t>
+          <t>东方龙混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.1580</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -6523,36 +4927,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160722</t>
+          <t>005744</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
+          <t>长安裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.1353</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -6561,36 +4965,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>206012</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金鹰元安混合A</t>
+          <t>鹏华价值精选股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.1160</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -6599,36 +5003,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.1133</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -6637,32 +5041,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010777</t>
+          <t>006372</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙商智选家居股票A</t>
+          <t>长安鑫盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.1056</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -6675,36 +5079,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519987</t>
+          <t>008445</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长信恒利优势混合</t>
+          <t>融通产业趋势先锋股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -6713,36 +5117,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002513</t>
+          <t>005413</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金鹰元安混合C</t>
+          <t>金信民长灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>24.86</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -6751,36 +5155,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006181</t>
+          <t>000684</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>格林伯锐灵活配置混合A</t>
+          <t>长盛养老健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.1015</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -6789,32 +5193,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010778</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>浙商智选家居股票C</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>77.41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.0999</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -6827,36 +5231,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006182</t>
+          <t>005049</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>格林伯锐灵活配置混合C</t>
+          <t>长安鑫旺价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -6865,36 +5269,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011432</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合C</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0842</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -6903,36 +5307,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001657</t>
+          <t>008412</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长安鑫富领先灵活配置混合</t>
+          <t>长盛竞争优势股票A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>80.94</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -6941,36 +5345,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>014256</t>
+          <t>005050</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）C</t>
+          <t>长安鑫旺价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -6979,32 +5383,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009106</t>
+          <t>007152</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉合同顺智选股票A</t>
+          <t>诺德策略精选混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>81.47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0647</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -7017,32 +5421,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009107</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉合同顺智选股票C</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -7055,36 +5459,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0502</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -7093,36 +5497,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>95.36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -7131,34 +5535,794 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>960025</t>
+          <t>000966</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>嘉实研究精选混合H</t>
+          <t>中邮核心科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.58</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>0</v>
       </c>
-      <c r="H37" t="n">
-        <v>7</v>
+      <c r="H57" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7172,128 +6336,964 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.13</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>24</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.34</v>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>11.13</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>6.2</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8.27</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>5.3</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>13.05</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.34</v>
       </c>
     </row>
@@ -583,6 +600,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6746</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1997,708 +2944,6 @@
       </c>
       <c r="H37" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010347</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银汇理策略收益一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0329</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>41.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2697</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>660010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4347</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3712</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2313</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008819</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银汇理策略趋势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009778</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1581</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1001</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519959</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013488</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>014135</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧金安量化混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>67.44</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0585</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010777</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014136</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧金安量化混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>67.44</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010778</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2773,22 +3018,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.85</t>
+          <t>56.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.46</t>
+          <t>74.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8882</t>
+          <t>2.0329</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2801,36 +3046,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.89</t>
+          <t>41.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4799</t>
+          <t>1.2697</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2839,36 +3084,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>31.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>75.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2479</t>
+          <t>1.1116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2877,36 +3122,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6640</t>
+          <t>0.4347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2915,36 +3160,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>501080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4556</t>
+          <t>0.3712</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2953,36 +3198,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009778</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信消费升级混合A</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4221</t>
+          <t>0.2313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2991,36 +3236,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3883</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3029,32 +3274,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>009778</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>长信消费升级混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>83.25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>0.1581</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3067,32 +3312,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>630015</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商大盘量化精选混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.1001</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3115,26 +3360,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3143,36 +3388,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009779</t>
+          <t>013488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信消费升级混合C</t>
+          <t>长信多利灵活配置混合D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3181,32 +3426,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>014135</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>中欧金安量化混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3219,36 +3464,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007152</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺德策略精选混合</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3257,36 +3502,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>010777</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>浙商智选家居股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -3305,26 +3550,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -3333,32 +3578,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010777</t>
+          <t>014136</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浙商智选家居股票A</t>
+          <t>中欧金安量化混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3381,26 +3626,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3409,6 +3654,708 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4148,7 +5095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6330,7 +7277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688696-极米科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>4.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>11.13</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>6.2</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>8.27</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>5.3</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>13.05</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.34</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +2134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2944,708 +3549,6 @@
       </c>
       <c r="H37" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010347</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银汇理策略收益一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0329</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>41.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2697</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>660010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1116</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银行业领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4347</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3712</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001150</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通互联网传媒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2313</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008819</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>农银汇理策略趋势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009778</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1581</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1001</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519959</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013488</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信多利灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.11</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>014135</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧金安量化混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>67.44</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0585</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002189</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>农银汇理国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>54.15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010777</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014136</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧金安量化混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>67.44</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010778</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商智选家居股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3720,22 +3623,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.85</t>
+          <t>56.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.46</t>
+          <t>74.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8882</t>
+          <t>2.0329</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3748,36 +3651,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.89</t>
+          <t>41.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4799</t>
+          <t>1.2697</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3786,36 +3689,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>31.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.90</t>
+          <t>75.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2479</t>
+          <t>1.1116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3824,36 +3727,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6640</t>
+          <t>0.4347</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3862,36 +3765,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>501080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4556</t>
+          <t>0.3712</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3900,36 +3803,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009778</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信消费升级混合A</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4221</t>
+          <t>0.2313</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3938,36 +3841,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>76.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3883</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3976,32 +3879,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>009778</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>长信消费升级混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>83.25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>0.1581</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4014,32 +3917,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>630015</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商大盘量化精选混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.1001</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4062,26 +3965,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -4090,36 +3993,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009779</t>
+          <t>013488</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信消费升级混合C</t>
+          <t>长信多利灵活配置混合D</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -4128,32 +4031,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>014135</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>中欧金安量化混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4166,36 +4069,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007152</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺德策略精选混合</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>54.15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -4204,36 +4107,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>010777</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>浙商智选家居股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4252,26 +4155,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>82.39</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0158</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -4280,32 +4183,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010777</t>
+          <t>014136</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浙商智选家居股票A</t>
+          <t>中欧金安量化混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>67.44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4328,26 +4231,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.50</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4356,6 +4259,708 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8882</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5095,7 +5700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7277,7 +7882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
